--- a/data/Subset1_WithDialogActs/Math US1 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math US1 transcript.xlsx_with_dialog_acts.xlsx
@@ -597,12 +597,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1185,12 +1185,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1353,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1731,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1815,12 +1815,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1941,12 +1941,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2235,12 +2235,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2953,12 +2953,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2995,12 +2995,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3247,12 +3247,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3457,12 +3457,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3541,12 +3541,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3793,12 +3793,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4045,12 +4045,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4087,12 +4087,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4339,12 +4339,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4507,12 +4507,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4801,12 +4801,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4889,12 +4889,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4931,12 +4931,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5057,12 +5057,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5225,12 +5225,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5267,12 +5267,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6065,12 +6065,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6317,12 +6317,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6443,12 +6443,12 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6611,12 +6611,12 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6741,12 +6741,12 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6783,12 +6783,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6871,12 +6871,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7001,12 +7001,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7169,12 +7169,12 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7253,12 +7253,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7463,12 +7463,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8013,12 +8013,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8349,12 +8349,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9403,12 +9403,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9613,12 +9613,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10373,12 +10373,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10499,12 +10499,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10625,12 +10625,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11179,12 +11179,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11263,12 +11263,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11473,12 +11473,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11851,12 +11851,12 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12061,12 +12061,12 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12103,12 +12103,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12485,12 +12485,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12527,12 +12527,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12779,12 +12779,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13077,12 +13077,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13119,12 +13119,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13753,12 +13753,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13963,12 +13963,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14005,12 +14005,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14425,12 +14425,12 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14467,12 +14467,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14845,12 +14845,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15013,12 +15013,12 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15055,12 +15055,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15139,12 +15139,12 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15181,12 +15181,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15223,12 +15223,12 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15853,12 +15853,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16147,12 +16147,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16189,12 +16189,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16273,12 +16273,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16525,12 +16525,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16777,12 +16777,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17029,12 +17029,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17071,12 +17071,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17281,12 +17281,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17365,12 +17365,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17407,12 +17407,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17491,12 +17491,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17575,12 +17575,12 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18037,12 +18037,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18079,12 +18079,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18205,12 +18205,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18247,12 +18247,12 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18625,12 +18625,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19763,12 +19763,12 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19973,12 +19973,12 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20309,12 +20309,12 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20351,12 +20351,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21107,12 +21107,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21401,12 +21401,12 @@
       <c r="H498" t="inlineStr"/>
       <c r="I498" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21783,12 +21783,12 @@
       <c r="H507" t="inlineStr"/>
       <c r="I507" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21909,12 +21909,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22123,12 +22123,12 @@
       <c r="H515" t="inlineStr"/>
       <c r="I515" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22501,12 +22501,12 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22585,12 +22585,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22711,12 +22711,12 @@
       <c r="H529" t="inlineStr"/>
       <c r="I529" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23219,12 +23219,12 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23345,12 +23345,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23429,12 +23429,12 @@
       <c r="H546" t="inlineStr"/>
       <c r="I546" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23895,12 +23895,12 @@
       <c r="H557" t="inlineStr"/>
       <c r="I557" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24063,12 +24063,12 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24189,12 +24189,12 @@
       <c r="H564" t="inlineStr"/>
       <c r="I564" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24273,12 +24273,12 @@
       <c r="H566" t="inlineStr"/>
       <c r="I566" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25121,12 +25121,12 @@
       <c r="H586" t="inlineStr"/>
       <c r="I586" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25205,12 +25205,12 @@
       <c r="H588" t="inlineStr"/>
       <c r="I588" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25625,12 +25625,12 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25751,12 +25751,12 @@
       <c r="H601" t="inlineStr"/>
       <c r="I601" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26179,12 +26179,12 @@
       <c r="H611" t="inlineStr"/>
       <c r="I611" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26263,12 +26263,12 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26347,12 +26347,12 @@
       <c r="H615" t="inlineStr"/>
       <c r="I615" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26729,12 +26729,12 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26939,12 +26939,12 @@
       <c r="H629" t="inlineStr"/>
       <c r="I629" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26981,12 +26981,12 @@
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27489,12 +27489,12 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27825,12 +27825,12 @@
       <c r="H650" t="inlineStr"/>
       <c r="I650" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28329,12 +28329,12 @@
       <c r="H662" t="inlineStr"/>
       <c r="I662" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29211,12 +29211,12 @@
       <c r="H683" t="inlineStr"/>
       <c r="I683" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29337,12 +29337,12 @@
       <c r="H686" t="inlineStr"/>
       <c r="I686" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29547,12 +29547,12 @@
       <c r="H691" t="inlineStr"/>
       <c r="I691" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29631,12 +29631,12 @@
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -31105,12 +31105,12 @@
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31357,12 +31357,12 @@
       <c r="H734" t="inlineStr"/>
       <c r="I734" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -31609,12 +31609,12 @@
       <c r="H740" t="inlineStr"/>
       <c r="I740" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -32029,12 +32029,12 @@
       <c r="H750" t="inlineStr"/>
       <c r="I750" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J750" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32113,12 +32113,12 @@
       <c r="H752" t="inlineStr"/>
       <c r="I752" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -32239,12 +32239,12 @@
       <c r="H755" t="inlineStr"/>
       <c r="I755" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -32281,12 +32281,12 @@
       <c r="H756" t="inlineStr"/>
       <c r="I756" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J756" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -32831,12 +32831,12 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -33125,12 +33125,12 @@
       <c r="H776" t="inlineStr"/>
       <c r="I776" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -33167,12 +33167,12 @@
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -33209,12 +33209,12 @@
       <c r="H778" t="inlineStr"/>
       <c r="I778" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33377,12 +33377,12 @@
       <c r="H782" t="inlineStr"/>
       <c r="I782" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33671,12 +33671,12 @@
       <c r="H789" t="inlineStr"/>
       <c r="I789" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J789" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33713,12 +33713,12 @@
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J790" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -33923,12 +33923,12 @@
       <c r="H795" t="inlineStr"/>
       <c r="I795" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J795" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -34175,12 +34175,12 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J801" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34343,12 +34343,12 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J805" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34721,12 +34721,12 @@
       <c r="H814" t="inlineStr"/>
       <c r="I814" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34847,12 +34847,12 @@
       <c r="H817" t="inlineStr"/>
       <c r="I817" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J817" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34931,12 +34931,12 @@
       <c r="H819" t="inlineStr"/>
       <c r="I819" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J819" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35057,12 +35057,12 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J822" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35523,12 +35523,12 @@
       <c r="H833" t="inlineStr"/>
       <c r="I833" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J833" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -35947,12 +35947,12 @@
       <c r="H843" t="inlineStr"/>
       <c r="I843" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -36199,12 +36199,12 @@
       <c r="H849" t="inlineStr"/>
       <c r="I849" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -37417,12 +37417,12 @@
       <c r="H878" t="inlineStr"/>
       <c r="I878" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37459,12 +37459,12 @@
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -38551,12 +38551,12 @@
       <c r="H905" t="inlineStr"/>
       <c r="I905" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J905" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -38677,12 +38677,12 @@
       <c r="H908" t="inlineStr"/>
       <c r="I908" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -39185,12 +39185,12 @@
       <c r="H920" t="inlineStr"/>
       <c r="I920" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J920" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -39227,12 +39227,12 @@
       <c r="H921" t="inlineStr"/>
       <c r="I921" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -39479,12 +39479,12 @@
       <c r="H927" t="inlineStr"/>
       <c r="I927" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -39605,12 +39605,12 @@
       <c r="H930" t="inlineStr"/>
       <c r="I930" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J930" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -39689,12 +39689,12 @@
       <c r="H932" t="inlineStr"/>
       <c r="I932" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J932" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -40403,12 +40403,12 @@
       <c r="H949" t="inlineStr"/>
       <c r="I949" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -40739,12 +40739,12 @@
       <c r="H957" t="inlineStr"/>
       <c r="I957" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J957" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -40781,12 +40781,12 @@
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J958" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -40953,12 +40953,12 @@
       <c r="H962" t="inlineStr"/>
       <c r="I962" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J962" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -40995,12 +40995,12 @@
       <c r="H963" t="inlineStr"/>
       <c r="I963" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J963" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -41415,12 +41415,12 @@
       <c r="H973" t="inlineStr"/>
       <c r="I973" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J973" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -41499,12 +41499,12 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J975" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -41583,12 +41583,12 @@
       <c r="H977" t="inlineStr"/>
       <c r="I977" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J977" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -41877,12 +41877,12 @@
       <c r="H984" t="inlineStr"/>
       <c r="I984" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J984" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -42003,12 +42003,12 @@
       <c r="H987" t="inlineStr"/>
       <c r="I987" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J987" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -42213,12 +42213,12 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J992" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -42297,12 +42297,12 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J994" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -42549,12 +42549,12 @@
       <c r="H1000" t="inlineStr"/>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1000" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -42633,12 +42633,12 @@
       <c r="H1002" t="inlineStr"/>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1002" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -42759,12 +42759,12 @@
       <c r="H1005" t="inlineStr"/>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1005" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43305,12 +43305,12 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1018" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -44057,12 +44057,12 @@
       <c r="H1036" t="inlineStr"/>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1036" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -44141,12 +44141,12 @@
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1038" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -44225,12 +44225,12 @@
       <c r="H1040" t="inlineStr"/>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1040" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -44309,12 +44309,12 @@
       <c r="H1042" t="inlineStr"/>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1042" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -44435,12 +44435,12 @@
       <c r="H1045" t="inlineStr"/>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1045" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -44645,12 +44645,12 @@
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1050" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -45149,12 +45149,12 @@
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1062" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -45317,12 +45317,12 @@
       <c r="H1066" t="inlineStr"/>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1066" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -45485,12 +45485,12 @@
       <c r="H1070" t="inlineStr"/>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1070" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -45737,12 +45737,12 @@
       <c r="H1076" t="inlineStr"/>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1076" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -45905,12 +45905,12 @@
       <c r="H1080" t="inlineStr"/>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1080" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -46073,12 +46073,12 @@
       <c r="H1084" t="inlineStr"/>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1084" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -46157,12 +46157,12 @@
       <c r="H1086" t="inlineStr"/>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1086" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -46493,12 +46493,12 @@
       <c r="H1094" t="inlineStr"/>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1094" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -46619,12 +46619,12 @@
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1097" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -46745,12 +46745,12 @@
       <c r="H1100" t="inlineStr"/>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1100" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -47039,12 +47039,12 @@
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -47123,12 +47123,12 @@
       </c>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -47165,12 +47165,12 @@
       <c r="H1110" t="inlineStr"/>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1110" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -47421,12 +47421,12 @@
       <c r="H1116" t="inlineStr"/>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1116" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -47631,12 +47631,12 @@
       <c r="H1121" t="inlineStr"/>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1121" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -47971,12 +47971,12 @@
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1129" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -48563,12 +48563,12 @@
       <c r="H1143" t="inlineStr"/>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1143" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -48647,12 +48647,12 @@
       <c r="H1145" t="inlineStr"/>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1145" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -48941,12 +48941,12 @@
       </c>
       <c r="I1152" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1152" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -49281,12 +49281,12 @@
       <c r="H1160" t="inlineStr"/>
       <c r="I1160" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1160" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -49789,12 +49789,12 @@
       <c r="H1172" t="inlineStr"/>
       <c r="I1172" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1172" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -49915,12 +49915,12 @@
       <c r="H1175" t="inlineStr"/>
       <c r="I1175" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1175" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -50209,12 +50209,12 @@
       <c r="H1182" t="inlineStr"/>
       <c r="I1182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -50377,12 +50377,12 @@
       <c r="H1186" t="inlineStr"/>
       <c r="I1186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -50503,12 +50503,12 @@
       <c r="H1189" t="inlineStr"/>
       <c r="I1189" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1189" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -50587,12 +50587,12 @@
       <c r="H1191" t="inlineStr"/>
       <c r="I1191" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1191" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -50839,12 +50839,12 @@
       <c r="H1197" t="inlineStr"/>
       <c r="I1197" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1197" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -50965,12 +50965,12 @@
       <c r="H1200" t="inlineStr"/>
       <c r="I1200" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1200" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -51847,12 +51847,12 @@
       <c r="H1221" t="inlineStr"/>
       <c r="I1221" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1221" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -52099,12 +52099,12 @@
       <c r="H1227" t="inlineStr"/>
       <c r="I1227" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1227" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -52519,12 +52519,12 @@
       <c r="H1237" t="inlineStr"/>
       <c r="I1237" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1237" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -52729,12 +52729,12 @@
       <c r="H1242" t="inlineStr"/>
       <c r="I1242" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1242" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -53149,12 +53149,12 @@
       </c>
       <c r="I1252" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1252" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -53233,12 +53233,12 @@
       <c r="H1254" t="inlineStr"/>
       <c r="I1254" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1254" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -53695,12 +53695,12 @@
       <c r="H1265" t="inlineStr"/>
       <c r="I1265" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1265" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -53863,12 +53863,12 @@
       </c>
       <c r="I1269" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1269" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -54371,12 +54371,12 @@
       <c r="H1281" t="inlineStr"/>
       <c r="I1281" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1281" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -54665,12 +54665,12 @@
       <c r="H1288" t="inlineStr"/>
       <c r="I1288" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1288" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -55253,12 +55253,12 @@
       </c>
       <c r="I1302" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1302" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -55421,12 +55421,12 @@
       <c r="H1306" t="inlineStr"/>
       <c r="I1306" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1306" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -56093,12 +56093,12 @@
       <c r="H1322" t="inlineStr"/>
       <c r="I1322" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1322" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -56219,12 +56219,12 @@
       </c>
       <c r="I1325" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1325" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -56345,12 +56345,12 @@
       <c r="H1328" t="inlineStr"/>
       <c r="I1328" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1328" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -56555,12 +56555,12 @@
       <c r="H1333" t="inlineStr"/>
       <c r="I1333" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1333" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -57017,12 +57017,12 @@
       <c r="H1344" t="inlineStr"/>
       <c r="I1344" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1344" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -57227,12 +57227,12 @@
       <c r="H1349" t="inlineStr"/>
       <c r="I1349" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1349" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -57563,12 +57563,12 @@
       </c>
       <c r="I1357" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1357" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -57605,12 +57605,12 @@
       </c>
       <c r="I1358" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1358" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -58025,12 +58025,12 @@
       <c r="H1368" t="inlineStr"/>
       <c r="I1368" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1368" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -58655,12 +58655,12 @@
       <c r="H1383" t="inlineStr"/>
       <c r="I1383" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1383" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -58739,12 +58739,12 @@
       <c r="H1385" t="inlineStr"/>
       <c r="I1385" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1385" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -58907,12 +58907,12 @@
       </c>
       <c r="I1389" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1389" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -60087,12 +60087,12 @@
       </c>
       <c r="I1417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -60171,12 +60171,12 @@
       <c r="H1419" t="inlineStr"/>
       <c r="I1419" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1419" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -60297,12 +60297,12 @@
       <c r="H1422" t="inlineStr"/>
       <c r="I1422" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1422" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -60675,12 +60675,12 @@
       </c>
       <c r="I1431" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1431" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -61137,12 +61137,12 @@
       </c>
       <c r="I1442" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1442" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -61179,12 +61179,12 @@
       </c>
       <c r="I1443" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1443" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
